--- a/biology/Botanique/Pandanus_spiralis/Pandanus_spiralis.xlsx
+++ b/biology/Botanique/Pandanus_spiralis/Pandanus_spiralis.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F3"/>
+  <dimension ref="A1:H3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,9 +490,11 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Pandanus spiralis est un buisson ou un arbuste pouvant mesurer jusqu'à 10 m de haut originaire du nord de l'Australie. Pandanus spiralis pousse dans le Queensland, le Territoire du Nord et l'extrême nord de l'Australie-Occidentale. La plante se rencontre principalement le long des cours d'eau ou dans les régions côtières et les dunes[1]. Il porte de longues feuilles épineuses arrangées en spirale. Du fait de ses feuilles pointues, diverses espèces d'oiseaux se réfugient dans son branchage[2].
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Pandanus spiralis est un buisson ou un arbuste pouvant mesurer jusqu'à 10 m de haut originaire du nord de l'Australie. Pandanus spiralis pousse dans le Queensland, le Territoire du Nord et l'extrême nord de l'Australie-Occidentale. La plante se rencontre principalement le long des cours d'eau ou dans les régions côtières et les dunes. Il porte de longues feuilles épineuses arrangées en spirale. Du fait de ses feuilles pointues, diverses espèces d'oiseaux se réfugient dans son branchage.
 </t>
         </is>
       </c>
@@ -511,21 +523,23 @@
           <t>Liste des variétés</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t>Selon Catalogue of Life                                   (20 mai 2013)[3] :
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t>Selon Catalogue of Life                                   (20 mai 2013) :
 variété Pandanus spiralis var. convexus
 variété Pandanus spiralis var. flammeus
 variété Pandanus spiralis var. multimammillatus
 variété Pandanus spiralis var. spiralis
 variété Pandanus spiralis var. thermalis
-Selon World Checklist of Selected Plant Families (WCSP)  (20 mai 2013)[4] :
+Selon World Checklist of Selected Plant Families (WCSP)  (20 mai 2013) :
 variété Pandanus spiralis var. convexus (H.St.John) B.C.Stone (1978)
 variété Pandanus spiralis var. flammeus B.C.Stone (1978)
 variété Pandanus spiralis var. multimammillatus B.C.Stone (1978)
 variété Pandanus spiralis var. spiralis
 variété Pandanus spiralis var. thermalis (H.St.John) B.C.Stone (1978)
-Selon Tropicos                                           (20 mai 2013)[5] (Attention liste brute contenant possiblement des synonymes) :
+Selon Tropicos                                           (20 mai 2013) (Attention liste brute contenant possiblement des synonymes) :
 variété Pandanus spiralis var. convexus (H. St. John) B.C. Stone
 variété Pandanus spiralis var. flammeus B.C. Stone
 variété Pandanus spiralis var. multimammillatus B.C. Stone
